--- a/src/main/resources/templates/excel/product_import_template.xlsx
+++ b/src/main/resources/templates/excel/product_import_template.xlsx
@@ -1,18 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sturdyspace\nam 4\hk1\tlcn\ecommerce-fashion-tlcn\ecommerce-fashion-be\src\main\resources\templates\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B458B1CC-722E-4858-B70A-7BBC5305F8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Dữ liệu mẫu" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Hướng dẫn" sheetId="2" r:id="rId5"/>
+    <sheet name="Dữ liệu mẫu" sheetId="1" r:id="rId1"/>
+    <sheet name="Hướng dẫn" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>Product Name</t>
   </si>
@@ -95,51 +104,6 @@
     <t>https://product.hstatic.net/200000642007/product/50ivs_3atsb0243_1_f0c28c2aac18482a814e2ef1d14c95e4_6ce0ec84d2c14ca3ad405cb18c2369cb_master.jpg</t>
   </si>
   <si>
-    <t>Váy Hoa Mùa Hè</t>
-  </si>
-  <si>
-    <t>Váy hoa chất liệu voan, dáng xòe nhẹ nhàng.</t>
-  </si>
-  <si>
-    <t>Chân váy</t>
-  </si>
-  <si>
-    <t>https://product.hstatic.net/200000642007/product/50crd_3fopm0334_1_7323c19cc45347c39025ddbaa5f3e3fb_37cb3e56c8b249a19c8ea7a1afd64375_master.jpg</t>
-  </si>
-  <si>
-    <t>https://product.hstatic.net/200000642007/product/50crd_3fopm0334_2_0a90ec4a19b34c88997bf3ae1bdd76c6_21132002f21642d193f0e118f4f6bbc1_master.jpg</t>
-  </si>
-  <si>
-    <t>https://product.hstatic.net/200000642007/product/50crd_3fopm0334_3_b48c1e4996b1475e8645e60a5dc5e8e2_a7bf58a9f1404a70a81312c285e77652_master.jpg</t>
-  </si>
-  <si>
-    <t>https://product.hstatic.net/200000642007/product/50crd_3fopm0334_4_388dfbdb016842bd8fbe5fe2a25743c1_d26d02fd9100495a9f1febfbbc1a76b8_master.jpg</t>
-  </si>
-  <si>
-    <t>YELLOW</t>
-  </si>
-  <si>
-    <t>Áo Croptop MLB Korea Women's Basic Varsity Cultive LA Dodgers White</t>
-  </si>
-  <si>
-    <t>Quần kaki nam, ống đứng, lịch sự.</t>
-  </si>
-  <si>
-    <t>Áo sơ mi &amp; Áo kiểu</t>
-  </si>
-  <si>
-    <t>https://bizweb.dktcdn.net/100/446/974/products/ao-croptop-mlb-chinh-hang-logo-la-mau-trang-3ftsv1243-07whs-8.jpg?v=1714586584963</t>
-  </si>
-  <si>
-    <t>https://bizweb.dktcdn.net/100/446/974/products/ao-croptop-mlb-chinh-hang-logo-la-mau-trang-3ftsv1243-07whs-9.jpg?v=1714586585770</t>
-  </si>
-  <si>
-    <t>https://bizweb.dktcdn.net/100/446/974/products/ao-croptop-mlb-chinh-hang-logo-la-mau-trang-3ftsv1243-07whs-10.jpg?v=1714586586590</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
     <t>Mục</t>
   </si>
   <si>
@@ -155,21 +119,12 @@
     <t>Cách sử dụng chung</t>
   </si>
   <si>
-    <t>&amp;lt;ul&gt;&amp;lt;li&gt;Vui lòng điền thông tin vào sheet Products_Data.&amp;lt;/li&gt;&amp;lt;li&gt;KHÔNG thay đổi tên và thứ tự các cột tiêu đề trong sheet Products_Data.&amp;lt;/li&gt;&amp;lt;li&gt;Các trường có dấu (*) trong tên cột là bắt buộc.&amp;lt;/li&gt;&amp;lt;li&gt;Đối với các trường có giá trị lựa chọn cố định (ví dụ: Màu, Kích thước), vui lòng tham khảo danh sách giá trị hợp lệ bên dưới.&amp;lt;/li&gt;&amp;lt;/ul&gt;</t>
-  </si>
-  <si>
     <t>Cách nhập sản phẩm và biến thể</t>
   </si>
   <si>
-    <t>&amp;lt;ul&gt;&amp;lt;li&gt;Dòng đầu tiên của một sản phẩm mới: Điền đầy đủ thông tin sản phẩm chính (từ Product Name đến Product Image URL X) VÀ thông tin cho biến thể đầu tiên của sản phẩm đó (từ Variant Color đến Variant Image URL Y).&amp;lt;/li&gt;&amp;lt;li&gt;Các dòng biến thể tiếp theo của cùng sản phẩm đó: Để trống tất cả các cột thông tin sản phẩm chính (từ Product Name đến Product Image URL X). Chỉ điền thông tin cho biến thể mới (từ Variant Color đến Variant Image URL Y). Hệ thống sẽ tự động hiểu rằng các dòng này thuộc về sản phẩm chính đã được khai báo ở dòng ngay phía trên có đầy đủ thông tin sản phẩm.&amp;lt;/li&gt;&amp;lt;li&gt;Khi muốn bắt đầu một sản phẩm mới khác, hãy lặp lại việc điền đầy đủ thông tin sản phẩm chính ở dòng đó.&amp;lt;/li&gt;&amp;lt;/ul&gt;</t>
-  </si>
-  <si>
     <t>Định dạng dữ liệu quan trọng</t>
   </si>
   <si>
-    <t>&amp;lt;ul&gt;&amp;lt;li&gt;Giá (Price, Variant Difference Price): Chỉ nhập số, không nhập ký tự tiền tệ (ví dụ: 150000).&amp;lt;/li&gt;&amp;lt;li&gt;Is Featured (Nổi bật): Nhập TRUE hoặc FALSE. Nếu để trống, mặc định là FALSE.&amp;lt;/li&gt;&amp;lt;li&gt;URL Hình ảnh: Phải là đường dẫn URL đầy đủ, công khai và hình ảnh đã được tải lên Google Cloud Storage.&amp;lt;/li&gt;&amp;lt;/ul&gt;</t>
-  </si>
-  <si>
     <t>Giá trị hợp lệ cho Variant Color (*)</t>
   </si>
   <si>
@@ -185,37 +140,82 @@
     <t>Lưu ý quan trọng</t>
   </si>
   <si>
-    <t>&amp;lt;ul&gt;&amp;lt;li&gt;Đảm bảo tên Category Name phải khớp chính xác với một danh mục đã tồn tại trong hệ thống.&amp;lt;/li&gt;&amp;lt;li&gt;Product Name của sản phẩm chính phải là duy nhất trong hệ thống (trừ khi bạn đang cập nhật sản phẩm đã có bằng ID - tính năng này chưa được tập trung trong file mẫu này).&amp;lt;/li&gt;&amp;lt;/ul&gt;</t>
+    <t>Vui lòng điền thông tin vào sheet Dữ liệu mẫu.
+KHÔNG thay đổi tên và thứ tự các cột tiêu đề trong sheet Dữ liệu mẫu.
+Các trường có dấu (*) trong tên cột là bắt buộc.
+Đối với các trường có giá trị lựa chọn cố định (ví dụ: Màu, Kích thước), vui lòng tham khảo danh sách giá trị hợp lệ bên dưới.</t>
+  </si>
+  <si>
+    <t>Dòng đầu tiên của một sản phẩm mới: Điền đầy đủ thông tin sản phẩm chính (từ Product Name đến Product Image URL X) VÀ thông tin cho biến thể đầu tiên của sản phẩm đó (từ Variant Color đến Variant Image URL Y).
+Các dòng biến thể tiếp theo của cùng sản phẩm đó: Để trống tất cả các cột thông tin sản phẩm chính (từ Product Name đến Product Image URL X). Chỉ điền thông tin cho biến thể mới (từ Variant Color đến Variant Image URL Y). Hệ thống sẽ tự động hiểu rằng các dòng này thuộc về sản phẩm chính đã được khai báo ở dòng ngay phía trên có đầy đủ thông tin sản phẩm.
+Khi muốn bắt đầu một sản phẩm mới khác, hãy lặp lại việc điền đầy đủ thông tin sản phẩm chính ở dòng đó.</t>
+  </si>
+  <si>
+    <t>Giá (Price, Variant Difference Price): Chỉ nhập số, không nhập ký tự tiền tệ (ví dụ: 150000).
+Is Featured (Nổi bật): Nhập TRUE hoặc FALSE. Nếu để trống, mặc định là FALSE.
+URL Hình ảnh: Phải là đường dẫn URL đầy đủ, công khai và hình ảnh đã được tải lên Google Cloud Storage.</t>
+  </si>
+  <si>
+    <t>Đảm bảo tên Category Name phải khớp chính xác với một danh mục đã tồn tại trong hệ thống.
+Product Name của sản phẩm chính phải là duy nhất trong hệ thống (trừ khi bạn đang cập nhật sản phẩm đã có bằng ID - tính năng này chưa được tập trung trong file mẫu này).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -224,61 +224,76 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -468,392 +483,336 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.5"/>
-    <col customWidth="1" min="2" max="2" width="30.38"/>
-    <col customWidth="1" min="3" max="3" width="19.5"/>
-    <col customWidth="1" min="6" max="6" width="20.88"/>
-    <col customWidth="1" min="7" max="7" width="20.63"/>
-    <col customWidth="1" min="8" max="8" width="19.25"/>
-    <col customWidth="1" min="9" max="9" width="19.63"/>
-    <col customWidth="1" min="14" max="14" width="33.38"/>
+    <col min="1" max="1" width="22.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="28.21875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="29.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="29.5546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.77734375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="19" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2">
-        <v>199000.0</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="4">
+        <v>199000</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="3" t="b">
+      <c r="E2" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="2">
-        <v>120.0</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N2" s="5" t="s">
+      <c r="L2" s="4">
+        <v>120</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="7"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="6" t="s">
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="2">
-        <v>150.0</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N3" s="5" t="s">
+      <c r="L3" s="4">
+        <v>150</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="7"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="1" t="s">
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:16" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="2">
-        <v>100.0</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N4" s="5" t="s">
+      <c r="L4" s="4">
+        <v>100</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="2">
-        <v>350000.0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="O5" s="7"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" s="2">
-        <v>60.0</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="2">
-        <v>420000.0</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" s="2">
-        <v>90.0</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="O7" s="7"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="F2"/>
-    <hyperlink r:id="rId2" ref="G2"/>
-    <hyperlink r:id="rId3" ref="H2"/>
-    <hyperlink r:id="rId4" ref="I2"/>
-    <hyperlink r:id="rId5" ref="N2"/>
-    <hyperlink r:id="rId6" ref="N3"/>
-    <hyperlink r:id="rId7" ref="N4"/>
-    <hyperlink r:id="rId8" ref="F5"/>
-    <hyperlink r:id="rId9" ref="G5"/>
-    <hyperlink r:id="rId10" ref="H5"/>
-    <hyperlink r:id="rId11" ref="I5"/>
-    <hyperlink r:id="rId12" ref="N5"/>
-    <hyperlink r:id="rId13" ref="N6"/>
-    <hyperlink r:id="rId14" ref="F7"/>
-    <hyperlink r:id="rId15" ref="G7"/>
-    <hyperlink r:id="rId16" ref="H7"/>
-    <hyperlink r:id="rId17" ref="N7"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="N2" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="N3" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="N4" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
   </hyperlinks>
-  <drawing r:id="rId18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.0"/>
+    <col min="1" max="1" width="32.88671875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="79.33203125" style="8" customWidth="1"/>
+    <col min="3" max="16384" width="12.6640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="66" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="132" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>57</v>
-      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/templates/excel/product_import_template.xlsx
+++ b/src/main/resources/templates/excel/product_import_template.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sturdyspace\nam 4\hk1\tlcn\ecommerce-fashion-tlcn\ecommerce-fashion-be\src\main\resources\templates\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sturdyspace\nam4\hk1\tlcn\ecommerce-fashion-tlcn\ecommerce-fashion-be\src\main\resources\templates\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B458B1CC-722E-4858-B70A-7BBC5305F8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06E3B51-4EC1-4083-B94B-65F0BBC41109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Dữ liệu mẫu" sheetId="1" r:id="rId1"/>
+    <sheet name="Dữ liệu sản phẩm" sheetId="1" r:id="rId1"/>
     <sheet name="Hướng dẫn" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -495,9 +495,7 @@
   </sheetPr>
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -737,9 +735,7 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -796,7 +792,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>36</v>
       </c>

--- a/src/main/resources/templates/excel/product_import_template.xlsx
+++ b/src/main/resources/templates/excel/product_import_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sturdyspace\nam4\hk1\tlcn\ecommerce-fashion-tlcn\ecommerce-fashion-be\src\main\resources\templates\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06E3B51-4EC1-4083-B94B-65F0BBC41109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88CF4DC-93B0-4AA9-AE9E-E13029B5404A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dữ liệu sản phẩm" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>Product Name</t>
   </si>
@@ -68,30 +68,9 @@
     <t>Variant Image URL 2</t>
   </si>
   <si>
-    <t>Áo Thun Tay Ngắn Basic</t>
-  </si>
-  <si>
-    <t>Áo thun nam, chất cotton 100%, co giãn 4 chiều.</t>
-  </si>
-  <si>
     <t>Quần áo Basic</t>
   </si>
   <si>
-    <t>https://product.hstatic.net/200000642007/product/43inp_3atsb0243_9_2f22bf582f0846f1b26b21bbee49e2be_06e1ae9d21b243cf96e57ed6e9f96654_master.jpg</t>
-  </si>
-  <si>
-    <t>https://product.hstatic.net/200000642007/product/43inp_3atsb0243_1_b80aa357284f4a16984a985949b494c5_0d3fade96d2d4f89be621ff51f51e038_master.jpg</t>
-  </si>
-  <si>
-    <t>https://product.hstatic.net/200000642007/product/43inp_3atsb0243_2_8721f377eff249ccb1b0f58b88ecdfd9_f46de22b3feb4fce9c97f8039d20594a_master.jpg</t>
-  </si>
-  <si>
-    <t>https://product.hstatic.net/200000642007/product/43inp_3atsb0243_3_3bd9754efc3845c8ba64bd848c5e38cf_c90fa2f38c4c4751926f6b1b00e30c8b_master.jpg</t>
-  </si>
-  <si>
-    <t>BLUE</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
@@ -99,9 +78,6 @@
   </si>
   <si>
     <t>WHITE</t>
-  </si>
-  <si>
-    <t>https://product.hstatic.net/200000642007/product/50ivs_3atsb0243_1_f0c28c2aac18482a814e2ef1d14c95e4_6ce0ec84d2c14ca3ad405cb18c2369cb_master.jpg</t>
   </si>
   <si>
     <t>Mục</t>
@@ -158,6 +134,30 @@
   <si>
     <t>Đảm bảo tên Category Name phải khớp chính xác với một danh mục đã tồn tại trong hệ thống.
 Product Name của sản phẩm chính phải là duy nhất trong hệ thống (trừ khi bạn đang cập nhật sản phẩm đã có bằng ID - tính năng này chưa được tập trung trong file mẫu này).</t>
+  </si>
+  <si>
+    <t>Áo thun ôm</t>
+  </si>
+  <si>
+    <t>Áo thun ôm bằng cotton jersey co giãn có viền nhỏ quanh cổ và vạt ngang.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/db9vcatme/image/upload/v1749816791/1_w5pxif.png</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/db9vcatme/image/upload/v1749816790/3_xduiye.png</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/db9vcatme/image/upload/v1749816791/2_cqlneo.png</t>
+  </si>
+  <si>
+    <t>PINK</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/db9vcatme/image/upload/v1749816951/5_lzghkd.png</t>
   </si>
 </sst>
 </file>
@@ -174,12 +174,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -218,6 +212,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -236,12 +237,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -257,26 +259,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -495,7 +498,7 @@
   </sheetPr>
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -517,86 +520,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="9" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="4">
+        <v>149000</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="4">
-        <v>199000</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="E2" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>21</v>
+      <c r="F2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="L2" s="4">
         <v>120</v>
@@ -604,12 +607,12 @@
       <c r="M2" s="4">
         <v>0</v>
       </c>
-      <c r="N2" s="7" t="s">
-        <v>20</v>
+      <c r="N2" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:16" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -620,10 +623,10 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L3" s="4">
         <v>150</v>
@@ -631,12 +634,12 @@
       <c r="M3" s="4">
         <v>0</v>
       </c>
-      <c r="N3" s="7" t="s">
-        <v>20</v>
+      <c r="N3" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:16" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -647,10 +650,10 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="L4" s="4">
         <v>100</v>
@@ -658,29 +661,39 @@
       <c r="M4" s="4">
         <v>0</v>
       </c>
-      <c r="N4" s="7" t="s">
-        <v>26</v>
+      <c r="N4" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="3"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="7"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="4">
+        <v>100</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -690,28 +703,48 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="7"/>
+      <c r="J6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="4">
+        <v>100</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="3"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="7"/>
+      <c r="J7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="4">
+        <v>100</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="O7" s="3"/>
     </row>
   </sheetData>
@@ -723,6 +756,8 @@
     <hyperlink ref="N2" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="N3" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="N4" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="N5" r:id="rId8" xr:uid="{53730312-2DD7-4F48-84C2-FF756956BB3E}"/>
+    <hyperlink ref="N6:N7" r:id="rId9" display="https://res.cloudinary.com/db9vcatme/image/upload/v1749816951/5_lzghkd.png" xr:uid="{668C348B-D953-426C-A4E9-BD1625D17B28}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -735,77 +770,77 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.88671875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="79.33203125" style="8" customWidth="1"/>
-    <col min="3" max="16384" width="12.6640625" style="8"/>
+    <col min="1" max="1" width="32.88671875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="79.33203125" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="12.6640625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="66" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="132" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="11" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="B7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="9" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="66" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="132" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="B8" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
